--- a/Outputs/Summary/Biomass_Transplants_data.xlsx
+++ b/Outputs/Summary/Biomass_Transplants_data.xlsx
@@ -962,7 +962,7 @@
         <v>0.05140205468830058</v>
       </c>
       <c r="J21" t="n">
-        <v>1.0E-4</v>
+        <v>0.0</v>
       </c>
       <c r="K21" t="n">
         <v>0.40082566987132734</v>
@@ -1570,7 +1570,7 @@
         <v>0.011771712393247471</v>
       </c>
       <c r="J37" t="n">
-        <v>1.0E-4</v>
+        <v>0.0</v>
       </c>
       <c r="K37" t="n">
         <v>0.05092908265787634</v>
@@ -2178,7 +2178,7 @@
         <v>0.01577839461868358</v>
       </c>
       <c r="J53" t="n">
-        <v>1.0E-4</v>
+        <v>0.0</v>
       </c>
       <c r="K53" t="n">
         <v>0.18544571254933126</v>
@@ -2391,28 +2391,28 @@
         <v>14.0</v>
       </c>
       <c r="E59" t="n">
-        <v>117.75200000000001</v>
+        <v>114.632</v>
       </c>
       <c r="F59" t="n">
-        <v>83.83514285714286</v>
+        <v>80.71514285714285</v>
       </c>
       <c r="G59" t="n">
         <v>28.75485714285714</v>
       </c>
       <c r="H59" t="n">
-        <v>88.99714285714285</v>
+        <v>85.87714285714284</v>
       </c>
       <c r="I59" t="n">
-        <v>0.5680254482104661</v>
+        <v>0.5529748384678149</v>
       </c>
       <c r="J59" t="n">
-        <v>0.5026594263953174</v>
+        <v>0.4839525052056462</v>
       </c>
       <c r="K59" t="n">
         <v>0.478363406053414</v>
       </c>
       <c r="L59" t="n">
-        <v>0.6046426007519291</v>
+        <v>0.5834454605541344</v>
       </c>
     </row>
     <row r="60">
@@ -2429,28 +2429,28 @@
         <v>42.0</v>
       </c>
       <c r="E60" t="n">
-        <v>33.51833333333333</v>
+        <v>30.398333333333333</v>
       </c>
       <c r="F60" t="n">
-        <v>19.219238095238097</v>
+        <v>16.099238095238093</v>
       </c>
       <c r="G60" t="n">
         <v>12.298523809523811</v>
       </c>
       <c r="H60" t="n">
-        <v>21.219809523809523</v>
+        <v>18.099809523809522</v>
       </c>
       <c r="I60" t="n">
-        <v>0.16168953661028662</v>
+        <v>0.14663892686763552</v>
       </c>
       <c r="J60" t="n">
-        <v>0.11523486294011018</v>
+        <v>0.09652794175043904</v>
       </c>
       <c r="K60" t="n">
         <v>0.20459721673192968</v>
       </c>
       <c r="L60" t="n">
-        <v>0.1441664350790671</v>
+        <v>0.1229692948812724</v>
       </c>
     </row>
     <row r="61">
@@ -2467,28 +2467,28 @@
         <v>126.0</v>
       </c>
       <c r="E61" t="n">
-        <v>4.560333333333333</v>
+        <v>1.4403333333333332</v>
       </c>
       <c r="F61" t="n">
-        <v>3.12</v>
+        <v>0.0</v>
       </c>
       <c r="G61" t="n">
         <v>1.4403333333333332</v>
       </c>
       <c r="H61" t="n">
-        <v>3.12</v>
+        <v>0.0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.02199865297961644</v>
+        <v>0.006948043236965327</v>
       </c>
       <c r="J61" t="n">
-        <v>0.01870692118967111</v>
+        <v>0.0</v>
       </c>
       <c r="K61" t="n">
         <v>0.023961265248600008</v>
       </c>
       <c r="L61" t="n">
-        <v>0.021197140197794683</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="62">
